--- a/Documentación/PREGAME/1. ELICITACION/1.3 Historias Usuario/G2_Basantes_Orellana_Lopez_PT1_Matriz_v1.3.xlsx
+++ b/Documentación/PREGAME/1. ELICITACION/1.3 Historias Usuario/G2_Basantes_Orellana_Lopez_PT1_Matriz_v1.3.xlsx
@@ -1,16 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANALISIS Y DISEÑO\7185_G2\Documentación\PREGAME\1. ELICITACION\1.3 Historias Usuario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270E7F2B-1090-4259-A61B-6946FC5B2B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Formato descripción HU" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Historia de Usuario" sheetId="2" r:id="rId5"/>
+    <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
+    <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Formato descripción HU'!$B$5:$O$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formato descripción HU'!$B$5:$O$24</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mh/eSaHvsW3ywe9objpiNN/cKfOqg=="/>
     </ext>
@@ -547,96 +564,105 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -674,9 +700,21 @@
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -688,6 +726,7 @@
         <color rgb="FFB2B2B2"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -702,8 +741,10 @@
       <bottom style="thin">
         <color rgb="FF7B7B7B"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF7B7B7B"/>
       </right>
@@ -713,27 +754,34 @@
       <bottom style="thin">
         <color rgb="FF7B7B7B"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -743,6 +791,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -753,6 +802,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -761,6 +811,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -771,6 +822,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -779,6 +831,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -793,12 +846,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -807,6 +862,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -818,27 +874,39 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -847,16 +915,27 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -865,72 +944,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -941,14 +959,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -959,167 +970,288 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1131,30 +1263,33 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1165,11 +1300,17 @@
     <xdr:ext cx="1066800" cy="1162050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="2" name="image1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1193,11 +1334,17 @@
     <xdr:ext cx="1095375" cy="1162050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="3" name="image2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1215,7 +1362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1405,31 +1552,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.63"/>
-    <col customWidth="1" min="2" max="2" width="6.63"/>
-    <col customWidth="1" min="3" max="4" width="20.63"/>
-    <col customWidth="1" min="5" max="5" width="20.75"/>
-    <col customWidth="1" min="6" max="6" width="12.25"/>
-    <col customWidth="1" min="7" max="7" width="20.63"/>
-    <col customWidth="1" min="8" max="12" width="10.63"/>
-    <col customWidth="1" min="13" max="15" width="20.63"/>
-    <col customWidth="1" min="16" max="26" width="9.38"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="15" width="20.625" customWidth="1"/>
+    <col min="16" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
@@ -1437,7 +1589,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1465,11 +1617,24 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" ht="45.0" customHeight="1">
+    <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -1482,55 +1647,55 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" ht="60.0" customHeight="1">
+    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="5"/>
@@ -1545,871 +1710,871 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" hidden="1">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="12">
-        <v>44525.0</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="66">
+        <v>44525</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" hidden="1">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="12">
-        <v>44532.0</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="66">
+        <v>44532</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" hidden="1">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="12">
-        <v>44539.0</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="J8" s="66">
+        <v>44539</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" hidden="1">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:26" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="12">
-        <v>44546.0</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="11">
+        <v>44546</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" hidden="1">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:26" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="12">
-        <v>44525.0</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="J10" s="11">
+        <v>44525</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" hidden="1">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:26" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="12">
-        <v>44532.0</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="11">
+        <v>44532</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" hidden="1">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="12">
-        <v>44539.0</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="11">
+        <v>44539</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" hidden="1">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:26" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="12">
-        <v>44546.0</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="11">
+        <v>44546</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="12">
-        <v>44525.0</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="11">
+        <v>44525</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="12">
-        <v>44532.0</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="11">
+        <v>44532</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="12">
-        <v>44539.0</v>
-      </c>
-      <c r="K16" s="11" t="s">
+      <c r="J16" s="11">
+        <v>44539</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="18" t="s">
+      <c r="N16" s="15"/>
+      <c r="O16" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" hidden="1">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="2:15" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="12">
-        <v>44546.0</v>
-      </c>
-      <c r="K17" s="11" t="s">
+      <c r="J17" s="11">
+        <v>44546</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" hidden="1">
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="2:15" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="12">
-        <v>44553.0</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="J18" s="11">
+        <v>44553</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" hidden="1">
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="2:15" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="12">
-        <v>44560.0</v>
-      </c>
-      <c r="K19" s="11" t="s">
+      <c r="J19" s="11">
+        <v>44560</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" hidden="1">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="2:15" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="12">
-        <v>44202.0</v>
-      </c>
-      <c r="K20" s="11" t="s">
+      <c r="J20" s="11">
+        <v>44202</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" hidden="1">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="2:15" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="12">
-        <v>44553.0</v>
-      </c>
-      <c r="K21" s="11" t="s">
+      <c r="J21" s="11">
+        <v>44553</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" hidden="1">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="2:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="12">
-        <v>44560.0</v>
-      </c>
-      <c r="K22" s="11" t="s">
+      <c r="J22" s="11">
+        <v>44560</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" hidden="1">
-      <c r="B23" s="15" t="s">
+    <row r="23" spans="2:15" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="12">
-        <v>44202.0</v>
-      </c>
-      <c r="K23" s="11" t="s">
+      <c r="J23" s="11">
+        <v>44202</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" hidden="1">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="2:15" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="12">
-        <v>44553.0</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="J24" s="11">
+        <v>44553</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" ht="19.5" customHeight="1">
+    <row r="25" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" ht="19.5" customHeight="1">
+    <row r="26" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" ht="19.5" customHeight="1">
+    <row r="27" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" ht="19.5" customHeight="1">
+    <row r="28" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" ht="19.5" customHeight="1">
+    <row r="29" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" ht="19.5" customHeight="1">
+    <row r="30" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2" t="s">
@@ -2420,7 +2585,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1">
+    <row r="31" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2" t="s">
@@ -2431,7 +2596,7 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" ht="19.5" customHeight="1">
+    <row r="32" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2" t="s">
@@ -2442,7 +2607,7 @@
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" ht="19.5" customHeight="1">
+    <row r="33" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
@@ -2451,1980 +2616,1975 @@
       </c>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" ht="19.5" customHeight="1">
+    <row r="34" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" ht="19.5" customHeight="1">
+    <row r="35" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="2"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="2"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="2"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="2"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="2"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="2"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="2"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="2"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="2"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="2"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="2"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="2"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="2"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="2"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="2"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="2"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="2"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="2"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="2"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="2"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="2"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="2"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="2"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="2"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="2"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="2"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="2"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="2"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="2"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="2"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="2"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="2"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="2"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="2"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="2"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="2"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="2"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="2"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="2"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="2"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="2"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="2"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="2"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="2"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="2"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="2"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="2"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="2"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="2"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="2"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="2"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="2"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="2"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="2"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="2"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="2"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="2"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="2"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="2"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="2"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="2"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="2"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="2"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="2"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="2"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="2"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="2"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="2"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="2"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="2"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="2"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="2"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="2"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="2"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="2"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="2"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="2"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="2"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="2"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="2"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="2"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="2"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="2"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="2"/>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="2"/>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="2"/>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="2"/>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="2"/>
       <c r="L137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="2"/>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="2"/>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="2"/>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="2"/>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="2"/>
       <c r="L142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="2"/>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="2"/>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="2"/>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="2"/>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="2"/>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="2"/>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="2"/>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="2"/>
       <c r="L150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="2"/>
       <c r="L151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="2"/>
       <c r="L152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="2"/>
       <c r="L153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="2"/>
       <c r="L154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="2"/>
       <c r="L155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="2"/>
       <c r="L156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="2"/>
       <c r="L157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="2"/>
       <c r="L158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="2"/>
       <c r="L159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="2"/>
       <c r="L160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="2"/>
       <c r="L161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="2"/>
       <c r="L162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="2"/>
       <c r="L163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="2"/>
       <c r="L164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="2"/>
       <c r="L165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="2"/>
       <c r="L166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="2"/>
       <c r="L167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="2"/>
       <c r="L168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="2"/>
       <c r="L169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="2"/>
       <c r="L170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="2"/>
       <c r="L171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="2"/>
       <c r="L172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="2"/>
       <c r="L173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="2"/>
       <c r="L174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="2"/>
       <c r="L175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="2"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="2"/>
       <c r="L177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="2"/>
       <c r="L178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="2"/>
       <c r="L179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="2"/>
       <c r="L180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="2"/>
       <c r="L181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="2"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="2"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="2"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="2"/>
       <c r="L185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="2"/>
       <c r="L186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="2"/>
       <c r="L187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="2"/>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="2"/>
       <c r="L189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="2"/>
       <c r="L190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="2"/>
       <c r="L191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="2"/>
       <c r="L192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="2"/>
       <c r="L193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="2"/>
       <c r="L194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="2"/>
       <c r="L195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="2"/>
       <c r="L196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="2"/>
       <c r="L197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="2"/>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="2"/>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="2"/>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="2"/>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="2"/>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="2"/>
       <c r="L203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="2"/>
       <c r="L204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="2"/>
       <c r="L205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="2"/>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="2"/>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="2"/>
       <c r="L208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="2"/>
       <c r="L209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="2"/>
       <c r="L210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="2"/>
       <c r="L211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="2"/>
       <c r="L212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="2"/>
       <c r="L213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="2"/>
       <c r="L214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="2"/>
       <c r="L215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="2"/>
       <c r="L216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="2"/>
       <c r="L217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="2"/>
       <c r="L218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="2"/>
       <c r="L219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="2"/>
       <c r="L220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="2"/>
       <c r="L221" s="3"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="2"/>
       <c r="L222" s="3"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="2"/>
       <c r="L223" s="3"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="2"/>
       <c r="L224" s="3"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="2"/>
       <c r="L225" s="3"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="2"/>
       <c r="L226" s="3"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="2"/>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="2"/>
       <c r="L228" s="3"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="2"/>
       <c r="L229" s="3"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="2"/>
       <c r="L230" s="3"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="2"/>
       <c r="L231" s="3"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="2"/>
       <c r="L232" s="3"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="2"/>
       <c r="L233" s="3"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="234" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="$B$5:$O$24">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Daniela Orellana"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="B5:O24" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="9">
       <filters>
         <filter val="Alta"/>
@@ -4434,93 +4594,93 @@
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L9">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$L$20:$L$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$20:$K$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L10:L24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L10:L24" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$L$30:$L$33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K24" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$K$30:$K$32</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.5511811023622047" footer="0.0" header="0.0" left="0.31496062992125984" right="0.31496062992125984" top="0.7480314960629921"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.55118110236220474" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A2:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.38"/>
-    <col customWidth="1" min="2" max="2" width="2.63"/>
-    <col customWidth="1" min="3" max="15" width="10.63"/>
-    <col customWidth="1" min="16" max="16" width="2.63"/>
-    <col customWidth="1" min="17" max="26" width="9.38"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="2.625" customWidth="1"/>
+    <col min="3" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="2.625" customWidth="1"/>
+    <col min="17" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="3" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="4" hidden="1">
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" hidden="1">
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="39.75" customHeight="1">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" ht="9.75" customHeight="1">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+    </row>
+    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -4533,91 +4693,91 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" ht="9.75" customHeight="1">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
+    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" ht="30.0" customHeight="1">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="B10" s="30"/>
-      <c r="C10" s="36" t="s">
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="26"/>
+      <c r="C10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38" t="str">
+      <c r="D10" s="32"/>
+      <c r="E10" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,5,0)</f>
         <v>Administrador</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="38" t="str">
+      <c r="F10" s="43"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" ht="9.75" customHeight="1">
+    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="35"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="30"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -4629,29 +4789,29 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" ht="30.0" customHeight="1">
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="33" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="35"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="30"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -4663,32 +4823,32 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" ht="30.0" customHeight="1">
+    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="36" t="str">
+      <c r="B13" s="26"/>
+      <c r="C13" s="31" t="str">
         <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O20,8,0)</f>
-        <v>1 hrs </v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38" t="str">
+        <v xml:space="preserve">1 hrs </v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="38" t="str">
+      <c r="F13" s="43"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,7,0)</f>
         <v>Lenin Basantes</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="35"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -4700,23 +4860,23 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" ht="9.75" customHeight="1">
+    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -4728,38 +4888,38 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="59" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,3,0)</f>
-        <v>Registrar producto </v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="42" t="s">
+        <v xml:space="preserve">Registrar producto </v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="43" t="str">
+      <c r="H15" s="59" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,4,0)</f>
         <v>Crear un nuevo producto con el fin de ser asignado en una categoria.</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="42" t="s">
+      <c r="I15" s="57"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="46" t="str">
+      <c r="M15" s="56" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,6,0)</f>
         <v>El administrador registra un producto llenando los datos del producto: codigo,nombre,detalle y pago</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="35"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="30"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -4771,21 +4931,23 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" ht="19.5" customHeight="1">
+    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="34"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="34"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="35"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="30"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -4797,23 +4959,23 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
+    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="51"/>
       <c r="E17" s="52"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="53"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="52"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="50"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="51"/>
-      <c r="N17" s="53"/>
+      <c r="N17" s="58"/>
       <c r="O17" s="52"/>
-      <c r="P17" s="35"/>
+      <c r="P17" s="30"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -4825,23 +4987,23 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" ht="9.75" customHeight="1">
+    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -4853,92 +5015,92 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="54" t="s">
+    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="26"/>
+      <c r="C19" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="55" t="str">
+      <c r="D19" s="50"/>
+      <c r="E19" s="60" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,14,0)</f>
         <v>CRUD PRODUCTO - 1(ingreso producto)</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="35"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="30"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="26"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="35"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="30"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" ht="9.75" customHeight="1">
-      <c r="B21" s="30"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
+    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" ht="19.5" customHeight="1">
+    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="61" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="46" t="str">
+      <c r="D22" s="50"/>
+      <c r="E22" s="56" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,12,0)</f>
         <v>Los datos del producto deben estar guardados en la base de datos</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="61" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="46" t="str">
+      <c r="K22" s="50"/>
+      <c r="L22" s="56" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,13,0)</f>
         <v>Se debe notificar al usuario que el registro fue exitoso</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="35"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -4950,19 +5112,23 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" ht="19.5" customHeight="1">
+    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="48"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="35"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="30"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -4974,23 +5140,23 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" ht="19.5" customHeight="1">
+    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="30"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
       <c r="E24" s="51"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="52"/>
-      <c r="I24" s="34"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="51"/>
       <c r="K24" s="52"/>
       <c r="L24" s="51"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
       <c r="O24" s="52"/>
-      <c r="P24" s="35"/>
+      <c r="P24" s="30"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -5002,23 +5168,23 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" ht="9.75" customHeight="1">
+    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="64"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -5030,7 +5196,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" ht="19.5" customHeight="1">
+    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5058,7 +5224,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" ht="19.5" customHeight="1">
+    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5086,7 +5252,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" ht="19.5" customHeight="1">
+    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5114,7 +5280,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" ht="19.5" customHeight="1">
+    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5142,7 +5308,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" ht="19.5" customHeight="1">
+    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5170,7 +5336,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1">
+    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5198,7 +5364,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" ht="19.5" customHeight="1">
+    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5226,7 +5392,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" ht="19.5" customHeight="1">
+    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5254,7 +5420,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" ht="19.5" customHeight="1">
+    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -5270,7 +5436,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" ht="19.5" customHeight="1">
+    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -5286,7 +5452,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" ht="19.5" customHeight="1">
+    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -5302,7 +5468,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" ht="19.5" customHeight="1">
+    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -5318,7 +5484,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" ht="19.5" customHeight="1">
+    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -5334,7 +5500,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" ht="19.5" customHeight="1">
+    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -5350,7 +5516,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" ht="19.5" customHeight="1">
+    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -5363,7 +5529,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" ht="19.5" customHeight="1">
+    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -5379,7 +5545,7 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" ht="19.5" customHeight="1">
+    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -5395,7 +5561,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" ht="19.5" customHeight="1">
+    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -5411,7 +5577,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" ht="19.5" customHeight="1">
+    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -5427,7 +5593,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" ht="19.5" customHeight="1">
+    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -5443,7 +5609,7 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" ht="19.5" customHeight="1">
+    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -5459,7 +5625,7 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" ht="19.5" customHeight="1">
+    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -5475,7 +5641,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" ht="19.5" customHeight="1">
+    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -5491,7 +5657,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" ht="19.5" customHeight="1">
+    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -5507,7 +5673,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" ht="19.5" customHeight="1">
+    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -5523,7 +5689,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" ht="19.5" customHeight="1">
+    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -5539,7 +5705,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" ht="19.5" customHeight="1">
+    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -5555,7 +5721,7 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" ht="19.5" customHeight="1">
+    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -5571,7 +5737,7 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" ht="19.5" customHeight="1">
+    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -5586,7 +5752,7 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -5601,964 +5767,953 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="L22:O24"/>
     <mergeCell ref="H12:I12"/>
@@ -6569,35 +6724,53 @@
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:O17"/>
     <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"En proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10:C11">
-      <formula1>'Formato descripción HU'!$B$6:$B$20</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>'Formato descripción HU'!$B$6:$B$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>